--- a/Client/Assets/02. Scripts/Parse/GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/02. Scripts/Parse/GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D28DFD-2A84-4632-90DA-E7327461982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B191C-4B39-461D-BC7D-83C4FEBFB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="1" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" tabRatio="490" activeTab="1" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mode_Out" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 20: 팀전</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{4C0722BA-D945-475C-B46D-EDA77EE4F2C6}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{4C0722BA-D945-475C-B46D-EDA77EE4F2C6}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -163,7 +163,7 @@
 20: 팀전</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -566,10 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Name_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1vs1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,6 +723,10 @@
   </si>
   <si>
     <t>FITH_Team_Battle_6_MVP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name_Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1190,7 @@
 10: 개인전
 20: 팀전</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{4C0722BA-D945-475C-B46D-EDA77EE4F2C6}">
+  <threadedComment ref="B1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{4C0722BA-D945-475C-B46D-EDA77EE4F2C6}">
     <text>모드 이름</text>
   </threadedComment>
   <threadedComment ref="D1" dT="2024-09-12T14:12:36.26" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{CE16C7F6-8DAF-421E-8ED7-F6DB0642EEEB}">
@@ -1232,7 +1232,7 @@
 10: 개인전
 20: 팀전</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
+  <threadedComment ref="B1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
     <text>모드 이름</text>
   </threadedComment>
   <threadedComment ref="D1" dT="2024-09-12T14:13:27.38" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F917FFA1-36A9-4F6B-9951-0A981146E633}">
@@ -1370,31 +1370,31 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -1409,21 +1409,21 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1444,15 +1444,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1473,15 +1473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1502,15 +1502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>121</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1531,15 +1531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>122</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1572,49 +1572,49 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -1635,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
@@ -1644,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>20</v>
@@ -1662,7 +1662,7 @@
         <v>21</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>22</v>
@@ -1671,15 +1671,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D2">
         <v>180</v>
@@ -1736,15 +1736,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D3">
         <v>180</v>
@@ -1801,15 +1801,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D4">
         <v>180</v>
@@ -1866,15 +1866,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>121</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
         <v>180</v>
@@ -1931,15 +1931,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>122</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
         <v>180</v>
@@ -1996,9 +1996,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2013,49 +2013,49 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -2073,12 +2073,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>111102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -2096,12 +2096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -2119,12 +2119,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>111201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -2142,12 +2142,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>111202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -2165,12 +2165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -2188,12 +2188,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>112101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>112</v>
@@ -2211,12 +2211,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>112102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>112</v>
@@ -2234,12 +2234,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>112103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>112</v>
@@ -2257,12 +2257,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>112201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>112</v>
@@ -2280,12 +2280,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>112202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <v>112</v>
@@ -2303,12 +2303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2">
         <v>112</v>
@@ -2326,12 +2326,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2">
         <v>113</v>
@@ -2349,12 +2349,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>113102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2">
         <v>113</v>
@@ -2372,12 +2372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>113103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>113</v>
@@ -2395,12 +2395,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>113201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2">
         <v>113</v>
@@ -2418,12 +2418,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>113202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2">
         <v>113</v>
@@ -2441,12 +2441,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2">
         <v>113</v>
@@ -2464,12 +2464,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>121101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2">
         <v>121</v>
@@ -2487,12 +2487,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>121102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2">
         <v>121</v>
@@ -2510,12 +2510,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>121103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2">
         <v>121</v>
@@ -2533,12 +2533,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>121201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2">
         <v>121</v>
@@ -2556,12 +2556,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>121202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
         <v>121</v>
@@ -2579,12 +2579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>121203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>121</v>
@@ -2602,12 +2602,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>122101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>122</v>
@@ -2625,12 +2625,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>122102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
         <v>122</v>
@@ -2648,12 +2648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>122103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>122</v>
@@ -2671,12 +2671,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>122201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2">
         <v>122</v>
@@ -2694,12 +2694,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>122202</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2">
         <v>122</v>
@@ -2717,12 +2717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>122203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2">
         <v>122</v>
@@ -2740,43 +2740,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
@@ -2792,56 +2792,56 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -2868,12 +2868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -2900,12 +2900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>112001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>112</v>
@@ -2932,12 +2932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>112002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>112</v>
@@ -2964,12 +2964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>113001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>113</v>
@@ -2996,12 +2996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>113002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>113</v>
@@ -3028,12 +3028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>121001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>121</v>
@@ -3060,12 +3060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>121002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <v>121</v>
@@ -3092,12 +3092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>122001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>122</v>
@@ -3124,12 +3124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>121002</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
         <v>122</v>
@@ -3156,47 +3156,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
@@ -3212,64 +3212,64 @@
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -3302,12 +3302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -3340,12 +3340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -3378,12 +3378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -3416,12 +3416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -3454,12 +3454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -3492,12 +3492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>111</v>
@@ -3530,12 +3530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>111</v>
@@ -3568,12 +3568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>111</v>
@@ -3606,12 +3606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
         <v>111</v>
@@ -3644,12 +3644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2">
         <v>111</v>
@@ -3682,12 +3682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>111</v>
@@ -3720,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2">
         <v>111</v>
@@ -3758,12 +3758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
         <v>111</v>
@@ -3796,12 +3796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2">
         <v>111</v>
@@ -3834,12 +3834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2">
         <v>111</v>
@@ -3872,12 +3872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2">
         <v>111</v>
@@ -3910,12 +3910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2">
         <v>111</v>
@@ -3948,12 +3948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2">
         <v>111</v>
@@ -3986,12 +3986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
         <v>111</v>
@@ -4024,12 +4024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>111</v>
@@ -4062,12 +4062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2">
         <v>111</v>
@@ -4100,12 +4100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
         <v>111</v>
@@ -4138,12 +4138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>112100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <v>112</v>
@@ -4176,12 +4176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>112101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2">
         <v>112</v>
@@ -4214,12 +4214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>112102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2">
         <v>112</v>
@@ -4252,12 +4252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>112103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2">
         <v>112</v>
@@ -4290,12 +4290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>112104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <v>112</v>
@@ -4328,12 +4328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>112105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2">
         <v>112</v>
@@ -4366,12 +4366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>112106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2">
         <v>112</v>
@@ -4404,12 +4404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>112107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2">
         <v>112</v>
@@ -4442,12 +4442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>112108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
         <v>112</v>
@@ -4480,12 +4480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>112109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2">
         <v>112</v>
@@ -4518,12 +4518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>112110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2">
         <v>112</v>
@@ -4556,12 +4556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>112111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2">
         <v>112</v>
@@ -4594,12 +4594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>112200</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
         <v>112</v>
@@ -4632,12 +4632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>112201</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2">
         <v>112</v>
@@ -4670,12 +4670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>112202</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
         <v>112</v>
@@ -4708,12 +4708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>112203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2">
         <v>112</v>
@@ -4746,12 +4746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>112204</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>112</v>
@@ -4784,12 +4784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>112205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
         <v>112</v>
@@ -4822,12 +4822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>112206</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2">
         <v>112</v>
@@ -4860,12 +4860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>112207</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2">
         <v>112</v>
@@ -4898,12 +4898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>112208</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2">
         <v>112</v>
@@ -4936,12 +4936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>112209</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2">
         <v>112</v>
@@ -4974,12 +4974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>112210</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
@@ -5012,12 +5012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>113100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2">
         <v>113</v>
@@ -5050,12 +5050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>113101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2">
         <v>113</v>
@@ -5088,12 +5088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>113102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2">
         <v>113</v>
@@ -5126,12 +5126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>113103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2">
         <v>113</v>
@@ -5164,12 +5164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>113104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <v>113</v>
@@ -5202,12 +5202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>113105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2">
         <v>113</v>
@@ -5240,12 +5240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>113106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2">
         <v>113</v>
@@ -5278,12 +5278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>113107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2">
         <v>113</v>
@@ -5316,12 +5316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>113108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2">
         <v>113</v>
@@ -5354,12 +5354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>113109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2">
         <v>113</v>
@@ -5392,12 +5392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>113110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2">
         <v>113</v>
@@ -5430,12 +5430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>113111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2">
         <v>113</v>
@@ -5468,12 +5468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>113200</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2">
         <v>113</v>
@@ -5506,12 +5506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>113201</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2">
         <v>113</v>
@@ -5544,12 +5544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>113202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2">
         <v>113</v>
@@ -5582,12 +5582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>113203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2">
         <v>113</v>
@@ -5620,12 +5620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>113204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2">
         <v>113</v>
@@ -5658,12 +5658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>113205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2">
         <v>113</v>
@@ -5696,12 +5696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>113206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2">
         <v>113</v>
@@ -5734,12 +5734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>113207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2">
         <v>113</v>
@@ -5772,12 +5772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>113208</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2">
         <v>113</v>
@@ -5810,12 +5810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>113209</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2">
         <v>113</v>
@@ -5848,12 +5848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>113210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2">
         <v>113</v>
@@ -5886,12 +5886,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>121100</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2">
         <v>121</v>
@@ -5924,12 +5924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>121101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
         <v>121</v>
@@ -5962,12 +5962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>121102</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2">
         <v>121</v>
@@ -6000,12 +6000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>121103</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2">
         <v>121</v>
@@ -6038,12 +6038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>121104</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2">
         <v>121</v>
@@ -6076,12 +6076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>121105</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2">
         <v>121</v>
@@ -6114,12 +6114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>121106</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2">
         <v>121</v>
@@ -6152,12 +6152,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>121107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2">
         <v>121</v>
@@ -6190,12 +6190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>121108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2">
         <v>121</v>
@@ -6228,12 +6228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>121109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2">
         <v>121</v>
@@ -6266,12 +6266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>121110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2">
         <v>121</v>
@@ -6304,12 +6304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>121111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2">
         <v>121</v>
@@ -6342,12 +6342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>121200</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2">
         <v>121</v>
@@ -6380,12 +6380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>121201</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2">
         <v>121</v>
@@ -6418,12 +6418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>121202</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2">
         <v>121</v>
@@ -6456,12 +6456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>121203</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2">
         <v>121</v>
@@ -6494,12 +6494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>121204</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2">
         <v>121</v>
@@ -6532,12 +6532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>121205</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2">
         <v>121</v>
@@ -6570,12 +6570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>121206</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2">
         <v>121</v>
@@ -6608,12 +6608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>121207</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2">
         <v>121</v>
@@ -6646,12 +6646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>121208</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2">
         <v>121</v>
@@ -6684,12 +6684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>121209</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2">
         <v>121</v>
@@ -6722,12 +6722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>121210</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
         <v>121</v>
@@ -6760,12 +6760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>122100</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2">
         <v>122</v>
@@ -6798,12 +6798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>122101</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2">
         <v>122</v>
@@ -6836,12 +6836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>122102</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2">
         <v>122</v>
@@ -6874,12 +6874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>122103</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2">
         <v>122</v>
@@ -6912,12 +6912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>122104</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2">
         <v>122</v>
@@ -6950,12 +6950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>122105</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2">
         <v>122</v>
@@ -6988,12 +6988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>122106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2">
         <v>122</v>
@@ -7026,12 +7026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>122107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2">
         <v>122</v>
@@ -7064,12 +7064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>122108</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2">
         <v>122</v>
@@ -7102,12 +7102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>122109</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2">
         <v>122</v>
@@ -7140,12 +7140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>122110</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2">
         <v>122</v>
@@ -7178,12 +7178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>122111</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2">
         <v>122</v>
@@ -7216,12 +7216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>122200</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2">
         <v>122</v>
@@ -7254,12 +7254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>122201</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2">
         <v>122</v>
@@ -7292,12 +7292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>122202</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2">
         <v>122</v>
@@ -7330,12 +7330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>122203</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2">
         <v>122</v>
@@ -7368,12 +7368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>122204</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2">
         <v>122</v>
@@ -7406,12 +7406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>122205</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2">
         <v>122</v>
@@ -7444,12 +7444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>122206</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2">
         <v>122</v>
@@ -7482,12 +7482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>122207</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2">
         <v>122</v>
@@ -7520,12 +7520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>122208</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2">
         <v>122</v>
@@ -7558,12 +7558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>122209</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2">
         <v>122</v>
@@ -7596,12 +7596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>122210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2">
         <v>122</v>
